--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H2">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I2">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J2">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>9.835927372602312</v>
+        <v>0.1427699325527778</v>
       </c>
       <c r="R2">
-        <v>9.835927372602312</v>
+        <v>1.284929392975</v>
       </c>
       <c r="S2">
-        <v>0.01151639898504449</v>
+        <v>0.0001439516131395233</v>
       </c>
       <c r="T2">
-        <v>0.01151639898504449</v>
+        <v>0.0001638780340243865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H3">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I3">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J3">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>61.37820702256989</v>
+        <v>0.6433935136416666</v>
       </c>
       <c r="R3">
-        <v>61.37820702256989</v>
+        <v>5.790541622775</v>
       </c>
       <c r="S3">
-        <v>0.07186469503907696</v>
+        <v>0.0006487187639315151</v>
       </c>
       <c r="T3">
-        <v>0.07186469503907696</v>
+        <v>0.0007385172930628186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H4">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I4">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J4">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>7.362019539103621</v>
+        <v>0.07953540406666666</v>
       </c>
       <c r="R4">
-        <v>7.362019539103621</v>
+        <v>0.7158186366</v>
       </c>
       <c r="S4">
-        <v>0.008619823137793178</v>
+        <v>8.019370404106635E-05</v>
       </c>
       <c r="T4">
-        <v>0.008619823137793178</v>
+        <v>9.129447230748121E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H5">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I5">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J5">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>10.3715925607112</v>
+        <v>0.1443556901166667</v>
       </c>
       <c r="R5">
-        <v>10.3715925607112</v>
+        <v>1.29920121105</v>
       </c>
       <c r="S5">
-        <v>0.01214358275684055</v>
+        <v>0.0001455504957283738</v>
       </c>
       <c r="T5">
-        <v>0.01214358275684055</v>
+        <v>0.0001656982410341037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H6">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I6">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J6">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>50.39604670855274</v>
+        <v>0.5451860988083332</v>
       </c>
       <c r="R6">
-        <v>50.39604670855274</v>
+        <v>3.271116592849999</v>
       </c>
       <c r="S6">
-        <v>0.05900622881592902</v>
+        <v>0.0005496985043100111</v>
       </c>
       <c r="T6">
-        <v>0.05900622881592902</v>
+        <v>0.0004171934732224134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H7">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J7">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>25.79323087370277</v>
+        <v>15.34693387194144</v>
       </c>
       <c r="R7">
-        <v>25.79323087370277</v>
+        <v>138.122404847473</v>
       </c>
       <c r="S7">
-        <v>0.03020001333909189</v>
+        <v>0.01547395763316537</v>
       </c>
       <c r="T7">
-        <v>0.03020001333909189</v>
+        <v>0.017615931493883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H8">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J8">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>160.955058366623</v>
+        <v>69.16104484285967</v>
       </c>
       <c r="R8">
-        <v>160.955058366623</v>
+        <v>622.4494035857371</v>
       </c>
       <c r="S8">
-        <v>0.1884542860670531</v>
+        <v>0.06973347814578661</v>
       </c>
       <c r="T8">
-        <v>0.1884542860670531</v>
+        <v>0.07938629554041743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H9">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J9">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>19.30578200462769</v>
+        <v>8.549591394098668</v>
       </c>
       <c r="R9">
-        <v>19.30578200462769</v>
+        <v>76.94632254688801</v>
       </c>
       <c r="S9">
-        <v>0.02260418157446819</v>
+        <v>0.008620354796408731</v>
       </c>
       <c r="T9">
-        <v>0.02260418157446819</v>
+        <v>0.009813622548702701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H10">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J10">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>27.19793175695487</v>
+        <v>15.51739354811267</v>
       </c>
       <c r="R10">
-        <v>27.19793175695487</v>
+        <v>139.656541933014</v>
       </c>
       <c r="S10">
-        <v>0.03184470785678793</v>
+        <v>0.01564582817286054</v>
       </c>
       <c r="T10">
-        <v>0.03184470785678793</v>
+        <v>0.01781159311613002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H11">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J11">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N11">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O11">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P11">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q11">
-        <v>132.1560050856393</v>
+        <v>58.60432134910633</v>
       </c>
       <c r="R11">
-        <v>132.1560050856393</v>
+        <v>351.625928094638</v>
       </c>
       <c r="S11">
-        <v>0.1547349045170026</v>
+        <v>0.05908937858489394</v>
       </c>
       <c r="T11">
-        <v>0.1547349045170026</v>
+        <v>0.04484586166616762</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H12">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I12">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J12">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N12">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O12">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P12">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q12">
-        <v>24.05335377755965</v>
+        <v>39.17999674515811</v>
       </c>
       <c r="R12">
-        <v>24.05335377755965</v>
+        <v>352.619970706423</v>
       </c>
       <c r="S12">
-        <v>0.02816287763596158</v>
+        <v>0.03950428240331229</v>
       </c>
       <c r="T12">
-        <v>0.02816287763596158</v>
+        <v>0.04497264042136335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H13">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I13">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J13">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N13">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P13">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q13">
-        <v>150.0978679304307</v>
+        <v>176.5648783298097</v>
       </c>
       <c r="R13">
-        <v>150.0978679304307</v>
+        <v>1589.083904968287</v>
       </c>
       <c r="S13">
-        <v>0.1757421408688196</v>
+        <v>0.1780262734939931</v>
       </c>
       <c r="T13">
-        <v>0.1757421408688196</v>
+        <v>0.2026694600261702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H14">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I14">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J14">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N14">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O14">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P14">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q14">
-        <v>18.00351444080613</v>
+        <v>21.82670270089867</v>
       </c>
       <c r="R14">
-        <v>18.00351444080613</v>
+        <v>196.440324308088</v>
       </c>
       <c r="S14">
-        <v>0.02107942114445263</v>
+        <v>0.02200735832210086</v>
       </c>
       <c r="T14">
-        <v>0.02107942114445263</v>
+        <v>0.025053714489469</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H15">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I15">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J15">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N15">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O15">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P15">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q15">
-        <v>25.36330085095871</v>
+        <v>39.61517224101267</v>
       </c>
       <c r="R15">
-        <v>25.36330085095871</v>
+        <v>356.536550169114</v>
       </c>
       <c r="S15">
-        <v>0.02969662962243681</v>
+        <v>0.03994305976705376</v>
       </c>
       <c r="T15">
-        <v>0.02969662962243681</v>
+        <v>0.0454721552942857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H16">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I16">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J16">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N16">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O16">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P16">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q16">
-        <v>123.2414488793167</v>
+        <v>149.6140622530563</v>
       </c>
       <c r="R16">
-        <v>123.2414488793167</v>
+        <v>897.6843735183378</v>
       </c>
       <c r="S16">
-        <v>0.14429729328244</v>
+        <v>0.1508523904479878</v>
       </c>
       <c r="T16">
-        <v>0.14429729328244</v>
+        <v>0.1144893650272817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H17">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I17">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J17">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N17">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O17">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P17">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q17">
-        <v>0.6048519915145721</v>
+        <v>34.90886092817512</v>
       </c>
       <c r="R17">
-        <v>0.6048519915145721</v>
+        <v>314.179748353576</v>
       </c>
       <c r="S17">
-        <v>0.0007081911646260584</v>
+        <v>0.03519779517733135</v>
       </c>
       <c r="T17">
-        <v>0.0007081911646260584</v>
+        <v>0.04007003012924484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H18">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I18">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J18">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N18">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P18">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q18">
-        <v>3.774400658610488</v>
+        <v>157.3169804608827</v>
       </c>
       <c r="R18">
-        <v>3.774400658610488</v>
+        <v>1415.852824147944</v>
       </c>
       <c r="S18">
-        <v>0.004419258323831319</v>
+        <v>0.15861906429921</v>
       </c>
       <c r="T18">
-        <v>0.004419258323831319</v>
+        <v>0.1805758188409306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H19">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I19">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J19">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N19">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O19">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P19">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q19">
-        <v>0.4527211325491819</v>
+        <v>19.44730455345067</v>
       </c>
       <c r="R19">
-        <v>0.4527211325491819</v>
+        <v>175.025740981056</v>
       </c>
       <c r="S19">
-        <v>0.0005300686954969033</v>
+        <v>0.01960826633191789</v>
       </c>
       <c r="T19">
-        <v>0.0005300686954969033</v>
+        <v>0.02232252954322061</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H20">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I20">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J20">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N20">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O20">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P20">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q20">
-        <v>0.637792266847956</v>
+        <v>35.29659656181867</v>
       </c>
       <c r="R20">
-        <v>0.637792266847956</v>
+        <v>317.669369056368</v>
       </c>
       <c r="S20">
-        <v>0.0007467592974564354</v>
+        <v>0.03558874002780981</v>
       </c>
       <c r="T20">
-        <v>0.0007467592974564354</v>
+        <v>0.04051509130022506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H21">
+        <v>54.568808</v>
+      </c>
+      <c r="I21">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J21">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N21">
+        <v>14.657182</v>
+      </c>
+      <c r="O21">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P21">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q21">
+        <v>133.3041583965093</v>
+      </c>
+      <c r="R21">
+        <v>799.824950379056</v>
+      </c>
+      <c r="S21">
+        <v>0.1344074925039999</v>
+      </c>
+      <c r="T21">
+        <v>0.10200851591409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.52892</v>
+      </c>
+      <c r="I22">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J22">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.919165666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.757497</v>
+      </c>
+      <c r="O22">
+        <v>0.09179925534063474</v>
+      </c>
+      <c r="P22">
+        <v>0.1039451703609422</v>
+      </c>
+      <c r="Q22">
+        <v>1.46712538554</v>
+      </c>
+      <c r="R22">
+        <v>8.802752313239999</v>
+      </c>
+      <c r="S22">
+        <v>0.00147926851368621</v>
+      </c>
+      <c r="T22">
+        <v>0.001122690282426638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.52892</v>
+      </c>
+      <c r="I23">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J23">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.648731</v>
+      </c>
+      <c r="N23">
+        <v>25.946193</v>
+      </c>
+      <c r="O23">
+        <v>0.4136938666792861</v>
+      </c>
+      <c r="P23">
+        <v>0.4684295018482661</v>
+      </c>
+      <c r="Q23">
+        <v>6.611608900259999</v>
+      </c>
+      <c r="R23">
+        <v>39.66965340156</v>
+      </c>
+      <c r="S23">
+        <v>0.006666331976364996</v>
+      </c>
+      <c r="T23">
+        <v>0.005059410147685022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.52892</v>
+      </c>
+      <c r="I24">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J24">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.069144</v>
+      </c>
+      <c r="N24">
+        <v>3.207432</v>
+      </c>
+      <c r="O24">
+        <v>0.05114025576665047</v>
+      </c>
+      <c r="P24">
+        <v>0.05790659824245461</v>
+      </c>
+      <c r="Q24">
+        <v>0.8173178222399999</v>
+      </c>
+      <c r="R24">
+        <v>4.90390693344</v>
+      </c>
+      <c r="S24">
+        <v>0.0008240826121819234</v>
+      </c>
+      <c r="T24">
+        <v>0.0006254371887548075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="H21">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="I21">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="J21">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="N21">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="O21">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="P21">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="Q21">
-        <v>3.099062046862674</v>
-      </c>
-      <c r="R21">
-        <v>3.099062046862674</v>
-      </c>
-      <c r="S21">
-        <v>0.003628537875390657</v>
-      </c>
-      <c r="T21">
-        <v>0.003628537875390657</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.52892</v>
+      </c>
+      <c r="I25">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J25">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.940482</v>
+      </c>
+      <c r="N25">
+        <v>5.821446</v>
+      </c>
+      <c r="O25">
+        <v>0.09281887733605711</v>
+      </c>
+      <c r="P25">
+        <v>0.1050996980488267</v>
+      </c>
+      <c r="Q25">
+        <v>1.48342086972</v>
+      </c>
+      <c r="R25">
+        <v>8.900525218319999</v>
+      </c>
+      <c r="S25">
+        <v>0.001495698872604629</v>
+      </c>
+      <c r="T25">
+        <v>0.00113516009715184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.52892</v>
+      </c>
+      <c r="I26">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J26">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N26">
+        <v>14.657182</v>
+      </c>
+      <c r="O26">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P26">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q26">
+        <v>5.602414675859999</v>
+      </c>
+      <c r="R26">
+        <v>22.40965870343999</v>
+      </c>
+      <c r="S26">
+        <v>0.005648784836180097</v>
+      </c>
+      <c r="T26">
+        <v>0.002858095418748571</v>
       </c>
     </row>
   </sheetData>
